--- a/rhla_analysis/rhla1_6_exp_result/k1.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k1.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01521997996624966</v>
+        <v>0.01547129347451537</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2857698771863216</v>
+        <v>0.2859834864455209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1261722080136402</v>
+        <v>0.0746775288526816</v>
       </c>
       <c r="D2" t="n">
-        <v>18.77596933898842</v>
+        <v>18.48478195547119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01415651229702927</v>
+        <v>0.01388727084973027</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2257791049392673</v>
+        <v>0.2230014963789369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1534526854219949</v>
+        <v>0.09742023082145282</v>
       </c>
       <c r="D3" t="n">
-        <v>15.94878033529819</v>
+        <v>16.05797847481805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02131238509497572</v>
+        <v>0.02058404621611276</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2476314330106283</v>
+        <v>0.2485139633491559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1321398124467178</v>
+        <v>0.08723693143245079</v>
       </c>
       <c r="D4" t="n">
-        <v>11.61913281442189</v>
+        <v>12.07313473454137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02394767222652654</v>
+        <v>0.02379703735373115</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2211511331758362</v>
+        <v>0.2220140431964836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1346973572037511</v>
+        <v>0.0814663951120163</v>
       </c>
       <c r="D5" t="n">
-        <v>9.234765328501107</v>
+        <v>9.329482485418461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01762002711598743</v>
+        <v>0.01783733495499714</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1789230992661068</v>
+        <v>0.1771162806688746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.129156010230179</v>
+        <v>0.08282416836388323</v>
       </c>
       <c r="D6" t="n">
-        <v>10.15453030170208</v>
+        <v>9.929525969867786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02400545677209949</v>
+        <v>0.02452436631431764</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2318273454241159</v>
+        <v>0.2320180577884914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1342710997442455</v>
+        <v>0.08553971486761711</v>
       </c>
       <c r="D7" t="n">
-        <v>9.657276994352337</v>
+        <v>9.460715714927007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0191414451633736</v>
+        <v>0.01895156355748758</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3030042210360255</v>
+        <v>0.3055785904086752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1325660699062234</v>
+        <v>0.08078750848608282</v>
       </c>
       <c r="D8" t="n">
-        <v>15.82974631486092</v>
+        <v>16.12418888192178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02451208154135883</v>
+        <v>0.0246926448448306</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2403292737579738</v>
+        <v>0.2383735706477311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1248934356351236</v>
+        <v>0.08214528173794976</v>
       </c>
       <c r="D9" t="n">
-        <v>9.804523265495432</v>
+        <v>9.653626500752695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01911109362853069</v>
+        <v>0.01987540233275825</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2198919459501307</v>
+        <v>0.2172170348461878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1427962489343564</v>
+        <v>0.09266802443991853</v>
       </c>
       <c r="D10" t="n">
-        <v>11.50598444151082</v>
+        <v>10.92893774976192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01307605161060684</v>
+        <v>0.01296960478446052</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2086614343720923</v>
+        <v>0.2071655473633526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1355498721227621</v>
+        <v>0.09368635437881874</v>
       </c>
       <c r="D11" t="n">
-        <v>15.95752606259472</v>
+        <v>15.9731580727554</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k1.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01547129347451537</v>
+        <v>0.01547129347451547</v>
       </c>
       <c r="B2" t="n">
         <v>0.2859834864455209</v>
@@ -466,12 +466,12 @@
         <v>0.0746775288526816</v>
       </c>
       <c r="D2" t="n">
-        <v>18.48478195547119</v>
+        <v>18.48478195547107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01388727084973027</v>
+        <v>0.01388727084973036</v>
       </c>
       <c r="B3" t="n">
         <v>0.2230014963789369</v>
@@ -480,12 +480,12 @@
         <v>0.09742023082145282</v>
       </c>
       <c r="D3" t="n">
-        <v>16.05797847481805</v>
+        <v>16.05797847481794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02058404621611276</v>
+        <v>0.02058404621611288</v>
       </c>
       <c r="B4" t="n">
         <v>0.2485139633491559</v>
@@ -494,12 +494,12 @@
         <v>0.08723693143245079</v>
       </c>
       <c r="D4" t="n">
-        <v>12.07313473454137</v>
+        <v>12.07313473454131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02379703735373115</v>
+        <v>0.02379703735373125</v>
       </c>
       <c r="B5" t="n">
         <v>0.2220140431964836</v>
@@ -508,12 +508,12 @@
         <v>0.0814663951120163</v>
       </c>
       <c r="D5" t="n">
-        <v>9.329482485418461</v>
+        <v>9.329482485418419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01783733495499714</v>
+        <v>0.01783733495499717</v>
       </c>
       <c r="B6" t="n">
         <v>0.1771162806688746</v>
@@ -522,12 +522,12 @@
         <v>0.08282416836388323</v>
       </c>
       <c r="D6" t="n">
-        <v>9.929525969867786</v>
+        <v>9.929525969867772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02452436631431764</v>
+        <v>0.02452436631431765</v>
       </c>
       <c r="B7" t="n">
         <v>0.2320180577884914</v>
@@ -536,12 +536,12 @@
         <v>0.08553971486761711</v>
       </c>
       <c r="D7" t="n">
-        <v>9.460715714927007</v>
+        <v>9.460715714927005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01895156355748758</v>
+        <v>0.01895156355748756</v>
       </c>
       <c r="B8" t="n">
         <v>0.3055785904086752</v>
@@ -550,26 +550,26 @@
         <v>0.08078750848608282</v>
       </c>
       <c r="D8" t="n">
-        <v>16.12418888192178</v>
+        <v>16.12418888192179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0246926448448306</v>
+        <v>0.02469264484483058</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2383735706477311</v>
+        <v>0.2383735706477312</v>
       </c>
       <c r="C9" t="n">
         <v>0.08214528173794976</v>
       </c>
       <c r="D9" t="n">
-        <v>9.653626500752695</v>
+        <v>9.653626500752706</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01987540233275825</v>
+        <v>0.01987540233275826</v>
       </c>
       <c r="B10" t="n">
         <v>0.2172170348461878</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01296960478446052</v>
+        <v>0.01296960478446048</v>
       </c>
       <c r="B11" t="n">
         <v>0.2071655473633526</v>
@@ -592,7 +592,7 @@
         <v>0.09368635437881874</v>
       </c>
       <c r="D11" t="n">
-        <v>15.9731580727554</v>
+        <v>15.97315807275545</v>
       </c>
     </row>
   </sheetData>
